--- a/N2Oandchemical.xlsx
+++ b/N2Oandchemical.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SBTi\github\pathway-database\pathway-database\pathway-explorer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3FE47F-3862-4596-8FC7-07D30F9EF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B4049-534A-4B74-A39B-D913A3AA34D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{873F34D8-ABCD-44AB-BC0A-CD0F824933FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{873F34D8-ABCD-44AB-BC0A-CD0F824933FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>Unit</t>
   </si>
@@ -97,13 +98,31 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>The chemical sector accounts for roughly 5% of global CO₂ emissions, with most emissions coming from the production of ammonia, methanol, and high-value chemicals like ethylene and propylene. Emissions are decreasing by only 0.5% per year, far below the 3–4% annual reduction required to meet Net Zero by 2050 goals. Decarbonizing this sector demands a mix of electrification, carbon capture, alternative feedstocks (like green hydrogen and bio-based inputs), and process integration. Scaling innovation and deploying circular strategies are crucial for deep mitigation.</t>
+  </si>
+  <si>
+    <t>Impact and Outcome Metrics</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Share of gas in chemical energy demand</t>
+  </si>
+  <si>
+    <t>IPCC AR6</t>
+  </si>
+  <si>
+    <t>Share of electricity in chemical energy demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +138,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Seaford"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -151,14 +198,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A74704-6E58-4EA1-AB39-889FD4FE9E97}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,4 +1101,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF2E950-9474-4175-BF9F-127C68672085}">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2030</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2035</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2040</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2050</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>